--- a/data/depot/Spending Drivers - Medicaid - Kaiser and MACPAC Expenditure Comparison.xlsx
+++ b/data/depot/Spending Drivers - Medicaid - Kaiser and MACPAC Expenditure Comparison.xlsx
@@ -657,15 +657,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -692,6 +683,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:E62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,13 +1018,13 @@
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1982,55 +1982,55 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="27"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="27"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="27"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="24"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="27"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="24"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="30"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
